--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_149__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_149__Reeval_Sobol_Modell_1.1.xlsx
@@ -6118,40 +6118,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>0.5639710426330566</c:v>
+                  <c:v>0.5639733672142029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.07157135009766</c:v>
+                  <c:v>38.07156753540039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1123278364539146</c:v>
+                  <c:v>-0.1123232766985893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.5893393158912659</c:v>
+                  <c:v>-0.5893438458442688</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.40053939819336</c:v>
+                  <c:v>30.40053558349609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04020533338189125</c:v>
+                  <c:v>0.04020077362656593</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.27730941772461</c:v>
+                  <c:v>47.27730178833008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.1872444152832</c:v>
+                  <c:v>48.18724060058594</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.68670654296875</c:v>
+                  <c:v>49.68669509887695</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.16079330444336</c:v>
+                  <c:v>46.16078948974609</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.342342495918274</c:v>
+                  <c:v>1.342340230941772</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.4279321730136871</c:v>
+                  <c:v>-0.427925318479538</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-2.430063247680664</c:v>
@@ -6163,13 +6163,13 @@
                   <c:v>46.47415542602539</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48.50000381469727</c:v>
+                  <c:v>48.50000762939453</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>48.47579956054688</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.91110992431641</c:v>
+                  <c:v>21.91111183166504</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>47.80928802490234</c:v>
@@ -6181,52 +6181,52 @@
                   <c:v>41.42334365844727</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43.34306335449219</c:v>
+                  <c:v>43.34305191040039</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.540257692337036</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44.63132095336914</c:v>
+                  <c:v>44.63131332397461</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48.36309432983398</c:v>
+                  <c:v>48.36309051513672</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.09391425549983978</c:v>
+                  <c:v>0.09390969574451447</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.823438763618469</c:v>
+                  <c:v>-1.823436498641968</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.1425513625144958</c:v>
+                  <c:v>-0.1425559222698212</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48.01364517211914</c:v>
+                  <c:v>48.01364898681641</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.82639503479004</c:v>
+                  <c:v>26.82639694213867</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49.09407424926758</c:v>
+                  <c:v>49.09407043457031</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9720786809921265</c:v>
+                  <c:v>0.9720832109451294</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>23.89067459106445</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5815480947494507</c:v>
+                  <c:v>0.5815458297729492</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.02203565835952759</c:v>
+                  <c:v>-0.02203337848186493</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.9850990176200867</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.6260456442832947</c:v>
+                  <c:v>0.6260433793067932</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.580317139625549</c:v>
@@ -6235,7 +6235,7 @@
                   <c:v>50.86184692382812</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49.14316177368164</c:v>
+                  <c:v>49.14316940307617</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.6521273851394653</c:v>
@@ -6247,109 +6247,109 @@
                   <c:v>1.205234527587891</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>47.89736557006836</c:v>
+                  <c:v>47.89736938476562</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>48.72543716430664</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.898880004882812</c:v>
+                  <c:v>2.898886919021606</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.7303292155265808</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43.43766784667969</c:v>
+                  <c:v>43.43766403198242</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44.58667373657227</c:v>
+                  <c:v>44.58667755126953</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>38.58034133911133</c:v>
+                  <c:v>38.58033752441406</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.516029119491577</c:v>
+                  <c:v>-1.51603364944458</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>40.44921112060547</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2506439387798309</c:v>
+                  <c:v>0.2506416440010071</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>25.0175895690918</c:v>
+                  <c:v>25.01759147644043</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>47.3498420715332</c:v>
+                  <c:v>47.34984588623047</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>47.55681991577148</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.67538070678711</c:v>
+                  <c:v>32.67538452148438</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.5861503481864929</c:v>
+                  <c:v>0.5861526131629944</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>49.62291717529297</c:v>
+                  <c:v>49.62290573120117</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43.13447189331055</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.086843252182007</c:v>
+                  <c:v>-1.086845517158508</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42.96340179443359</c:v>
+                  <c:v>42.96339416503906</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1540923267602921</c:v>
+                  <c:v>0.1540900468826294</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>49.4567985534668</c:v>
+                  <c:v>49.45679473876953</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>44.07039642333984</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.2383780926465988</c:v>
+                  <c:v>0.2383712530136108</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>2.03575325012207</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.05116275325417519</c:v>
+                  <c:v>-0.0511673130095005</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>22.74806594848633</c:v>
+                  <c:v>22.7480640411377</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.2761170268058777</c:v>
+                  <c:v>-0.2761010825634003</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.74295139312744</c:v>
+                  <c:v>10.74294948577881</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.211904302239418</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>44.94169616699219</c:v>
+                  <c:v>44.94169998168945</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.9158440828323364</c:v>
+                  <c:v>0.9158509373664856</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>-0.1137274280190468</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0003373618819750845</c:v>
+                  <c:v>0.0003419208514969796</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>26.40188980102539</c:v>
+                  <c:v>26.40188407897949</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.6930803656578064</c:v>
+                  <c:v>0.6930758357048035</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>43.25308609008789</c:v>
@@ -6361,10 +6361,10 @@
                   <c:v>1.892948985099792</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.2260347455739975</c:v>
+                  <c:v>-0.2260324656963348</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.01992486789822578</c:v>
+                  <c:v>-0.01991574838757515</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0.2227477431297302</c:v>
@@ -6373,40 +6373,40 @@
                   <c:v>45.18603134155273</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>40.53880310058594</c:v>
+                  <c:v>40.53879928588867</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.6030640006065369</c:v>
+                  <c:v>0.6030594706535339</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.404546976089478</c:v>
+                  <c:v>1.404542446136475</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.45343017578125</c:v>
+                  <c:v>2.453432559967041</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.3127253651618958</c:v>
+                  <c:v>-0.3127299249172211</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.2719410359859467</c:v>
+                  <c:v>-0.2719478905200958</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>47.89879608154297</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>47.57572555541992</c:v>
+                  <c:v>47.57573318481445</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>37.33499145507812</c:v>
+                  <c:v>37.33498764038086</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>52.7729377746582</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.7645258903503418</c:v>
+                  <c:v>-0.7645190358161926</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.5251243114471436</c:v>
+                  <c:v>0.5251220464706421</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>44.18910980224609</c:v>
@@ -6415,13 +6415,13 @@
                   <c:v>51.84820938110352</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>37.84582138061523</c:v>
+                  <c:v>37.84581756591797</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>49.48650360107422</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>33.87873840332031</c:v>
+                  <c:v>33.87874221801758</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>-2.691997528076172</c:v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5639710426330566</v>
+        <v>0.5639733672142029</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>34.7122</v>
       </c>
       <c r="F3">
-        <v>38.07157135009766</v>
+        <v>38.07156753540039</v>
       </c>
       <c r="G3">
         <v>77</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.1123278364539146</v>
+        <v>-0.1123232766985893</v>
       </c>
       <c r="G4">
         <v>77</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.5893393158912659</v>
+        <v>-0.5893438458442688</v>
       </c>
       <c r="G5">
         <v>77</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.40053939819336</v>
+        <v>30.40053558349609</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04020533338189125</v>
+        <v>0.04020077362656593</v>
       </c>
       <c r="G7">
         <v>77</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>47.27730941772461</v>
+        <v>47.27730178833008</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>40.0699</v>
       </c>
       <c r="F9">
-        <v>48.1872444152832</v>
+        <v>48.18724060058594</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>49.6799</v>
       </c>
       <c r="F10">
-        <v>49.68670654296875</v>
+        <v>49.68669509887695</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>46.16079330444336</v>
+        <v>46.16078948974609</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.342342495918274</v>
+        <v>1.342340230941772</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.4279321730136871</v>
+        <v>-0.427925318479538</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7491,7 +7491,7 @@
         <v>51.572</v>
       </c>
       <c r="F17">
-        <v>48.50000381469727</v>
+        <v>48.50000762939453</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.91110992431641</v>
+        <v>21.91111183166504</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>50.398</v>
       </c>
       <c r="F23">
-        <v>43.34306335449219</v>
+        <v>43.34305191040039</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>45.2847</v>
       </c>
       <c r="F25">
-        <v>44.63132095336914</v>
+        <v>44.63131332397461</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>49.6745</v>
       </c>
       <c r="F26">
-        <v>48.36309432983398</v>
+        <v>48.36309051513672</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.09391425549983978</v>
+        <v>0.09390969574451447</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-1.823438763618469</v>
+        <v>-1.823436498641968</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.1425513625144958</v>
+        <v>-0.1425559222698212</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>51.3308</v>
       </c>
       <c r="F30">
-        <v>48.01364517211914</v>
+        <v>48.01364898681641</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>26.82639503479004</v>
+        <v>26.82639694213867</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.7115</v>
       </c>
       <c r="F32">
-        <v>49.09407424926758</v>
+        <v>49.09407043457031</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.9720786809921265</v>
+        <v>0.9720832109451294</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.5815480947494507</v>
+        <v>0.5815458297729492</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.02203565835952759</v>
+        <v>-0.02203337848186493</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.6260456442832947</v>
+        <v>0.6260433793067932</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>45.4106</v>
       </c>
       <c r="F41">
-        <v>49.14316177368164</v>
+        <v>49.14316940307617</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>61.4498</v>
       </c>
       <c r="F45">
-        <v>47.89736557006836</v>
+        <v>47.89736938476562</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>2.898880004882812</v>
+        <v>2.898886919021606</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>32.9114</v>
       </c>
       <c r="F49">
-        <v>43.43766784667969</v>
+        <v>43.43766403198242</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>44.58667373657227</v>
+        <v>44.58667755126953</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>46.8488</v>
       </c>
       <c r="F51">
-        <v>38.58034133911133</v>
+        <v>38.58033752441406</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-1.516029119491577</v>
+        <v>-1.51603364944458</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.2506439387798309</v>
+        <v>0.2506416440010071</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>39.3649</v>
       </c>
       <c r="F55">
-        <v>25.0175895690918</v>
+        <v>25.01759147644043</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>48.7071</v>
       </c>
       <c r="F56">
-        <v>47.3498420715332</v>
+        <v>47.34984588623047</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>32.67538070678711</v>
+        <v>32.67538452148438</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>46.476</v>
       </c>
       <c r="F59">
-        <v>0.5861503481864929</v>
+        <v>0.5861526131629944</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>52.8419</v>
       </c>
       <c r="F60">
-        <v>49.62291717529297</v>
+        <v>49.62290573120117</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-1.086843252182007</v>
+        <v>-1.086845517158508</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>49.8526</v>
       </c>
       <c r="F63">
-        <v>42.96340179443359</v>
+        <v>42.96339416503906</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.1540923267602921</v>
+        <v>0.1540900468826294</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>51.173</v>
       </c>
       <c r="F65">
-        <v>49.4567985534668</v>
+        <v>49.45679473876953</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.2383780926465988</v>
+        <v>0.2383712530136108</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-0.05116275325417519</v>
+        <v>-0.0511673130095005</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>38.2901</v>
       </c>
       <c r="F70">
-        <v>22.74806594848633</v>
+        <v>22.7480640411377</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-0.2761170268058777</v>
+        <v>-0.2761010825634003</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>10.74295139312744</v>
+        <v>10.74294948577881</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>47.053</v>
       </c>
       <c r="F74">
-        <v>44.94169616699219</v>
+        <v>44.94169998168945</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.9158440828323364</v>
+        <v>0.9158509373664856</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.0003373618819750845</v>
+        <v>0.0003419208514969796</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>43.5154</v>
       </c>
       <c r="F78">
-        <v>26.40188980102539</v>
+        <v>26.40188407897949</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.6930803656578064</v>
+        <v>0.6930758357048035</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-0.2260347455739975</v>
+        <v>-0.2260324656963348</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.01992486789822578</v>
+        <v>-0.01991574838757515</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>26.1928</v>
       </c>
       <c r="F87">
-        <v>40.53880310058594</v>
+        <v>40.53879928588867</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>47.2348</v>
       </c>
       <c r="F88">
-        <v>0.6030640006065369</v>
+        <v>0.6030594706535339</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.404546976089478</v>
+        <v>1.404542446136475</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>50.182</v>
       </c>
       <c r="F90">
-        <v>2.45343017578125</v>
+        <v>2.453432559967041</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-0.3127253651618958</v>
+        <v>-0.3127299249172211</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-0.2719410359859467</v>
+        <v>-0.2719478905200958</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>51.117</v>
       </c>
       <c r="F94">
-        <v>47.57572555541992</v>
+        <v>47.57573318481445</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.387</v>
       </c>
       <c r="F95">
-        <v>37.33499145507812</v>
+        <v>37.33498764038086</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>-0.7645258903503418</v>
+        <v>-0.7645190358161926</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0.5251243114471436</v>
+        <v>0.5251220464706421</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>37.84582138061523</v>
+        <v>37.84581756591797</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>58.1678</v>
       </c>
       <c r="F103">
-        <v>33.87873840332031</v>
+        <v>33.87874221801758</v>
       </c>
     </row>
     <row r="104" spans="1:6">
